--- a/medicine/Sexualité et sexologie/Sarah_Finger/Sarah_Finger.xlsx
+++ b/medicine/Sexualité et sexologie/Sarah_Finger/Sarah_Finger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarah Finger née le 25 février 1967 à Saint-Étienne est une journaliste française, correspondante du quotidien Libération[1], spécialisée dans les questions de société. Elle a également approfondi  d'autres thèmes dans ses livres, comme celui des snuff movies[2] et des perversions sexuelles[3]. Elle est par ailleurs l'auteure de guides régionaux sur Montpellier et l'Aveyron.
-En 2022, l'enquête d'Arrêt sur images révèle que Sarah Finger a tenté de dissimuler ses liens avec l'association L214 alors qu'elle écrit régulièrement au sujet de L214 dans Libération depuis 2015[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarah Finger née le 25 février 1967 à Saint-Étienne est une journaliste française, correspondante du quotidien Libération, spécialisée dans les questions de société. Elle a également approfondi  d'autres thèmes dans ses livres, comme celui des snuff movies et des perversions sexuelles. Elle est par ailleurs l'auteure de guides régionaux sur Montpellier et l'Aveyron.
+En 2022, l'enquête d'Arrêt sur images révèle que Sarah Finger a tenté de dissimuler ses liens avec l'association L214 alors qu'elle écrit régulièrement au sujet de L214 dans Libération depuis 2015,.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Perversions sexuelles, Ellipses, 1998  (ISBN 978-2729858209)
 Sexualité et société, Ellipses, 2000  (ISBN 978-2729879228)
 La Mort en direct, snuff movies, Le Cherche midi Éditeur, 2001  (ISBN 978-2862748665)
 Montpellier d'Antan : Montpellier à travers la carte postale ancienne, HC Éditions, 2005  (ISBN 978-2911207365)
 L'Effet-Médias. Pour une sociologie critique de l'information, L'Harmattan, 2010  (ISBN 978-2729879228)
-La France d'antan, HC Éditions, 2015  (ISBN 978-2357201910) [6]
+La France d'antan, HC Éditions, 2015  (ISBN 978-2357201910) 
 L'Aveyron : à travers la carte postale ancienne, HC Éditions, 2016  (ISBN 978-2357202986)</t>
         </is>
       </c>
